--- a/InputFiles/TC01_Bento_Filter_TissueComp-SolidTissue.xlsx
+++ b/InputFiles/TC01_Bento_Filter_TissueComp-SolidTissue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD5156-4813-48FF-8506-2C6C4D0C416F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69524C9A-292A-4E21-8DB3-E260040CC9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,25 @@
   </si>
   <si>
     <t>MATCH (ss:study_subject)
+MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
+MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
+MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
+MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)
+MATCH (s)-[:study_of_program]-&gt;(p)
+MATCH (ss)&lt;-[:sample_of_study_subject]-(samp)
+MATCH (samp)&lt;-[:file_of_sample]-(f)
+MATCH (lp)&lt;-[:file_of_laboratory_procedure]-(f)
+WHERE samp.composition in ["Solid Tissue"]
+RETURN COUNT(DISTINCT p) AS Programs,
+COUNT(DISTINCT s) AS Arms,
+COUNT(DISTINCT ss) AS Cases,
+COUNT(DISTINCT samp) AS Samples,
+COUNT(DISTINCT lp) AS Assays,
+COUNT(DISTINCT f) AS Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (ss:study_subject)
 MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
 MATCH (ss)&lt;-[:sample_of_study_subject]-(samp:sample)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
 WITH DISTINCT ss, samp, collect(DISTINCT samp.sample_id) AS samples, collect(DISTINCT lp.laboratory_procedure_id) AS lab_procedures, collect(DISTINCT f) AS files
@@ -77,26 +96,8 @@
    d.er_status AS `ER Status`,
    d.pr_status AS `PR Status`,
    demo.age_at_index AS `Age (years)`,
-	demo.survival_time AS `Survival (days)`</t>
-  </si>
-  <si>
-    <t>MATCH (ss:study_subject)
-MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
-MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)
-MATCH (s)-[:study_of_program]-&gt;(p)
-MATCH (ss)&lt;-[:sample_of_study_subject]-(samp)
-MATCH (samp)&lt;-[:file_of_sample]-(f)
-MATCH (lp)&lt;-[:file_of_laboratory_procedure]-(f)
-WHERE samp.composition in ["Solid Tissue"]
-RETURN COUNT(DISTINCT p) AS Programs,
-COUNT(DISTINCT s) AS Arms,
-COUNT(DISTINCT ss) AS Cases,
-COUNT(DISTINCT samp) AS Samples,
-COUNT(DISTINCT lp) AS Assays,
-COUNT(DISTINCT f) AS Files</t>
+demo.survival_time AS `Survival (days)`
+order By ss.study_subject_id ASC LIMIT 100 </t>
   </si>
 </sst>
 </file>
@@ -468,20 +469,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.81640625" customWidth="1"/>
-    <col min="3" max="3" width="60.453125" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="3" max="3" width="60.44140625" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -498,15 +499,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="348" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
